--- a/biology/Botanique/Mahonia_×media/Mahonia_×media.xlsx
+++ b/biology/Botanique/Mahonia_×media/Mahonia_×media.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mahonia_%C3%97media</t>
+          <t>Mahonia_×media</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mahonia ×media est une espèce hybride de Mahonia, issue d'un croisement entre Mahonia lomariifolia et Mahonia japonica, tous deux originaires d'Asie. Il en existe plusieurs cultivars, tels que Mahonia ×media 'Charity' et Mahonia ×media 'Winter sun'.
 Mahonia ×media, comme toutes les variétés originaires d'Asie, fleurit de novembre à fin janvier en longues grappes dressées au parfum de muguet, tandis que les variétés d'origine américaine (dont le plus commun est Mahonia aquifolium) fleurissent au printemps en petits bouquets au parfum de miel.
